--- a/部品表.xlsx
+++ b/部品表.xlsx
@@ -116,9 +116,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GRM1555C1H100RA01D</t>
-  </si>
-  <si>
     <t>10p</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -139,15 +136,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GRM155R71A104KA01D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0.1u</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.digikey.jp/product-detail/ja/murata-electronics-north-america/GRM155R71A104KA01D/490-6321-1-ND/3845518</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -414,6 +403,18 @@
   </si>
   <si>
     <t>http://akizukidenshi.com/catalog/g/gI-04365/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GRM1555C1H100RA01D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GRM155R71A104KA01J</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/product-detail/ja/murata-electronics-north-america/GRM155R71A104KA01J/490-6322-1-ND/3845519</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -796,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A428992-2109-44D4-BB72-86F4DC41C75D}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -806,7 +807,7 @@
     <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="92" customWidth="1"/>
+    <col min="8" max="8" width="130.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -898,10 +899,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
       </c>
       <c r="D4">
         <v>1005</v>
@@ -917,7 +918,7 @@
         <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -925,10 +926,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
       </c>
       <c r="D5">
         <v>1005</v>
@@ -944,7 +945,7 @@
         <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -952,10 +953,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>1005</v>
@@ -971,18 +972,18 @@
         <v>96</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D7">
         <v>1608</v>
@@ -998,18 +999,18 @@
         <v>32</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D8">
         <v>1608</v>
@@ -1025,18 +1026,18 @@
         <v>32</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
         <v>69</v>
-      </c>
-      <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>72</v>
       </c>
       <c r="D9">
         <v>1608</v>
@@ -1052,18 +1053,18 @@
         <v>47</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>1608</v>
@@ -1079,18 +1080,18 @@
         <v>64</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>98</v>
@@ -1103,21 +1104,21 @@
         <v>98</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
       </c>
       <c r="E12">
         <v>46</v>
@@ -1130,21 +1131,21 @@
         <v>46</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
         <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
       </c>
       <c r="E13">
         <v>134</v>
@@ -1157,18 +1158,18 @@
         <v>134</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D14">
         <v>1608</v>
@@ -1184,21 +1185,21 @@
         <v>110</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
         <v>60</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>63</v>
       </c>
       <c r="E15">
         <v>135</v>
@@ -1211,18 +1212,18 @@
         <v>135</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E16">
         <v>822</v>
@@ -1235,18 +1236,18 @@
         <v>822</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E17">
         <v>380</v>
@@ -1259,18 +1260,18 @@
         <v>380</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E18">
         <v>40</v>
@@ -1283,21 +1284,21 @@
         <v>40</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E19">
         <v>35</v>
@@ -1310,12 +1311,12 @@
         <v>35</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G21">
         <f>SUM(G2:G19)</f>

--- a/部品表.xlsx
+++ b/部品表.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10214"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keita\Documents\eagle\Development-Board\Embed-LPC1549\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Keita/Repositories/LPC1549Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9570" xr2:uid="{84587970-0F3F-4500-9F1C-171FE00174FF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{84587970-0F3F-4500-9F1C-171FE00174FF}"/>
   </bookViews>
   <sheets>
     <sheet name="部品表(基板1枚換算)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
   <si>
     <t>名称</t>
     <rPh sb="0" eb="2">
@@ -140,21 +140,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ポリスイッチ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PRG18BB330MB1RB</t>
-  </si>
-  <si>
-    <t>900mA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.digikey.jp/product-detail/ja/murata-electronics-north-america/PRG18BB330MB1RB/490-2471-1-ND/588685</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>microUSBコネクタ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -307,14 +292,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FT232QR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>32-QFN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>5個入り(値段は2個換算)</t>
     <rPh sb="1" eb="2">
       <t>コ</t>
@@ -334,25 +311,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2個入り(値段は1個換算)</t>
-    <rPh sb="1" eb="2">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ネダン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カンサン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>チップLED</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -415,6 +373,30 @@
   </si>
   <si>
     <t>https://www.digikey.jp/product-detail/ja/murata-electronics-north-america/GRM155R71A104KA01J/490-6322-1-ND/3845519</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TPD4S014DSQR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10-SON</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FT234DX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12-DFN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/product-detail/ja/texas-instruments/TPD4S014DSQR/296-29093-1-ND/2688396</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -422,7 +404,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,21 +779,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A428992-2109-44D4-BB72-86F4DC41C75D}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="130.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="130.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -840,7 +822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -867,7 +849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -884,22 +866,22 @@
         <v>47</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G10" si="0">F3*E3</f>
-        <v>141</v>
+        <v>235</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -921,7 +903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -948,12 +930,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -972,18 +954,18 @@
         <v>96</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D7">
         <v>1608</v>
@@ -999,18 +981,18 @@
         <v>32</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D8">
         <v>1608</v>
@@ -1026,18 +1008,18 @@
         <v>32</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D9">
         <v>1608</v>
@@ -1053,45 +1035,45 @@
         <v>47</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
       <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>1608</v>
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
       </c>
       <c r="E10">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>98</v>
@@ -1104,21 +1086,21 @@
         <v>98</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
       </c>
       <c r="E12">
         <v>46</v>
@@ -1131,21 +1113,21 @@
         <v>46</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
       </c>
       <c r="E13">
         <v>134</v>
@@ -1158,18 +1140,18 @@
         <v>134</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D14">
         <v>1608</v>
@@ -1185,21 +1167,21 @@
         <v>110</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E15">
         <v>135</v>
@@ -1212,18 +1194,18 @@
         <v>135</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>822</v>
@@ -1236,42 +1218,39 @@
         <v>822</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E17">
-        <v>380</v>
+        <v>238</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
         <f>F17*E17</f>
-        <v>380</v>
+        <v>238</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E18">
         <v>40</v>
@@ -1284,21 +1263,21 @@
         <v>40</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E19">
         <v>35</v>
@@ -1311,16 +1290,16 @@
         <v>35</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G21">
         <f>SUM(G2:G19)</f>
-        <v>2308</v>
+        <v>2398</v>
       </c>
     </row>
   </sheetData>
@@ -1331,19 +1310,19 @@
     <hyperlink ref="H4" r:id="rId3" xr:uid="{73E77623-1109-4B10-A977-91CB23A629C3}"/>
     <hyperlink ref="H5" r:id="rId4" xr:uid="{E36E6DE5-C4DF-415D-ADDD-FC0A925EF0AB}"/>
     <hyperlink ref="H6" r:id="rId5" xr:uid="{2CF551D5-122A-4FDD-B170-75A6DF9A831B}"/>
-    <hyperlink ref="H10" r:id="rId6" xr:uid="{917E5115-99ED-4D62-8F05-560ADA652B39}"/>
-    <hyperlink ref="H11" r:id="rId7" xr:uid="{FD0A18FB-CBA5-4CCD-823D-01265DB8C468}"/>
-    <hyperlink ref="H12" r:id="rId8" xr:uid="{DA8A38F4-7099-4A64-B7F6-BAC424AE2599}"/>
-    <hyperlink ref="H13" r:id="rId9" xr:uid="{CF5C0BD2-346F-4709-9389-25D3B1AE2CA3}"/>
-    <hyperlink ref="H14" r:id="rId10" xr:uid="{BD8324C3-BAFC-4365-8C09-DA4E5D624651}"/>
-    <hyperlink ref="H16" r:id="rId11" xr:uid="{BFD6EC85-69AF-42DF-9CCD-22E4033A442D}"/>
-    <hyperlink ref="H18" r:id="rId12" xr:uid="{2BBF63F1-1E36-4BF5-AD5F-4BB8180A6D88}"/>
-    <hyperlink ref="H19" r:id="rId13" xr:uid="{B1137307-EC80-4C4C-821E-3DEE3A2C67A0}"/>
-    <hyperlink ref="H15" r:id="rId14" xr:uid="{97BEAF2A-6E8E-4B90-BC25-185E1E54DE93}"/>
-    <hyperlink ref="H7" r:id="rId15" xr:uid="{D645C169-0955-42B1-91D7-EAD522DD9052}"/>
-    <hyperlink ref="H9" r:id="rId16" xr:uid="{26A2CB1E-9550-4751-81A8-61897221B76A}"/>
-    <hyperlink ref="H8" r:id="rId17" xr:uid="{C214EC02-086B-4E78-B6A0-0544C8053369}"/>
-    <hyperlink ref="H17" r:id="rId18" xr:uid="{0083025A-7425-468B-B897-6A4BC2370479}"/>
+    <hyperlink ref="H11" r:id="rId6" xr:uid="{FD0A18FB-CBA5-4CCD-823D-01265DB8C468}"/>
+    <hyperlink ref="H12" r:id="rId7" xr:uid="{DA8A38F4-7099-4A64-B7F6-BAC424AE2599}"/>
+    <hyperlink ref="H13" r:id="rId8" xr:uid="{CF5C0BD2-346F-4709-9389-25D3B1AE2CA3}"/>
+    <hyperlink ref="H14" r:id="rId9" xr:uid="{BD8324C3-BAFC-4365-8C09-DA4E5D624651}"/>
+    <hyperlink ref="H16" r:id="rId10" xr:uid="{BFD6EC85-69AF-42DF-9CCD-22E4033A442D}"/>
+    <hyperlink ref="H18" r:id="rId11" xr:uid="{2BBF63F1-1E36-4BF5-AD5F-4BB8180A6D88}"/>
+    <hyperlink ref="H19" r:id="rId12" xr:uid="{B1137307-EC80-4C4C-821E-3DEE3A2C67A0}"/>
+    <hyperlink ref="H15" r:id="rId13" xr:uid="{97BEAF2A-6E8E-4B90-BC25-185E1E54DE93}"/>
+    <hyperlink ref="H7" r:id="rId14" xr:uid="{D645C169-0955-42B1-91D7-EAD522DD9052}"/>
+    <hyperlink ref="H9" r:id="rId15" xr:uid="{26A2CB1E-9550-4751-81A8-61897221B76A}"/>
+    <hyperlink ref="H8" r:id="rId16" xr:uid="{C214EC02-086B-4E78-B6A0-0544C8053369}"/>
+    <hyperlink ref="H17" r:id="rId17" xr:uid="{0083025A-7425-468B-B897-6A4BC2370479}"/>
+    <hyperlink ref="H10" r:id="rId18" xr:uid="{62271D6A-11E5-324C-A168-F03AD3082C1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId19"/>

--- a/部品表.xlsx
+++ b/部品表.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10214"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10318"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Keita/Repositories/LPC1549Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E68DCE4-F84F-6747-B880-F7A77F9497C1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{84587970-0F3F-4500-9F1C-171FE00174FF}"/>
   </bookViews>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
     <t>名称</t>
     <rPh sb="0" eb="2">
@@ -93,25 +94,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RC0402JR-07220RL</t>
-  </si>
-  <si>
-    <t>https://www.digikey.jp/product-detail/ja/yageo/RC0402JR-07220RL/311-220JRCT-ND/729389</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RT0402BRD0710KL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10k</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://www.digikey.jp/product-detail/ja/yageo/RT0402BRD0710KL/YAG1346CT-ND/5138794</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>チップコンデンサ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -121,18 +107,6 @@
   </si>
   <si>
     <t>https://www.digikey.jp/product-detail/ja/murata-electronics-north-america/GRM1555C1H100RA01D/490-11374-1-ND/5333214</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GRM1555C1H470FA01D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>47p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.digikey.jp/product-detail/ja/murata-electronics-north-america/GRM1555C1H470FA01D/490-6241-1-ND/3845438</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -360,10 +334,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>http://akizukidenshi.com/catalog/g/gI-04365/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>GRM1555C1H100RA01D</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -388,16 +358,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FT234DX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>12-DFN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://www.digikey.jp/product-detail/ja/texas-instruments/TPD4S014DSQR/296-29093-1-ND/2688396</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/products/ja?keywords=311-330JRCT-ND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>311-330JRCT-ND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RC0402JR-0710KL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/products/ja?keywords=311-10KJRCT-ND</t>
   </si>
 </sst>
 </file>
@@ -777,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A428992-2109-44D4-BB72-86F4DC41C75D}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -827,26 +804,26 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C2">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="D2">
         <v>1005</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2">
         <f>F2*E2</f>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -854,37 +831,37 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>1005</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G10" si="0">F3*E3</f>
-        <v>235</v>
+        <f t="shared" ref="G3:G9" si="0">F3*E3</f>
+        <v>55</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>1005</v>
@@ -900,18 +877,18 @@
         <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>1005</v>
@@ -920,52 +897,52 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f>F5*E5</f>
+        <v>96</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>1005</v>
+        <v>1608</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <f>F6*E6</f>
-        <v>96</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D7">
         <v>1608</v>
@@ -981,350 +958,296 @@
         <v>32</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>1608</v>
       </c>
       <c r="E8">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9">
-        <v>1608</v>
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="E10">
-        <v>202</v>
+        <v>98</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>202</v>
+        <f t="shared" ref="G10:G17" si="1">F10*E10</f>
+        <v>98</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G11:G19" si="1">F11*E11</f>
-        <v>98</v>
+        <f t="shared" si="1"/>
+        <v>46</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
       <c r="E12">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
+      <c r="D13">
+        <v>1608</v>
       </c>
       <c r="E13">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14">
-        <v>1608</v>
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
       </c>
       <c r="E14">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <f>F14*E14</f>
+        <v>135</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="E15">
-        <v>135</v>
+        <v>822</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <f>F15*E15</f>
-        <v>135</v>
+        <f t="shared" si="1"/>
+        <v>822</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E16">
-        <v>822</v>
+        <v>40</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>822</v>
+        <v>40</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="I16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" t="s">
-        <v>77</v>
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
       </c>
       <c r="E17">
-        <v>238</v>
+        <v>35</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <f>F17*E17</f>
-        <v>238</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18">
-        <v>40</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19">
-        <v>35</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21">
-        <f>SUM(G2:G19)</f>
-        <v>2398</v>
+      <c r="H17" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19">
+        <f>SUM(G2:G17)</f>
+        <v>1952</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{B1204A9D-46E6-4B75-91BC-75D521D6AB7F}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{F7E314AA-71B5-4958-8466-93B4900E93FA}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{73E77623-1109-4B10-A977-91CB23A629C3}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{E36E6DE5-C4DF-415D-ADDD-FC0A925EF0AB}"/>
-    <hyperlink ref="H6" r:id="rId5" xr:uid="{2CF551D5-122A-4FDD-B170-75A6DF9A831B}"/>
-    <hyperlink ref="H11" r:id="rId6" xr:uid="{FD0A18FB-CBA5-4CCD-823D-01265DB8C468}"/>
-    <hyperlink ref="H12" r:id="rId7" xr:uid="{DA8A38F4-7099-4A64-B7F6-BAC424AE2599}"/>
-    <hyperlink ref="H13" r:id="rId8" xr:uid="{CF5C0BD2-346F-4709-9389-25D3B1AE2CA3}"/>
-    <hyperlink ref="H14" r:id="rId9" xr:uid="{BD8324C3-BAFC-4365-8C09-DA4E5D624651}"/>
-    <hyperlink ref="H16" r:id="rId10" xr:uid="{BFD6EC85-69AF-42DF-9CCD-22E4033A442D}"/>
-    <hyperlink ref="H18" r:id="rId11" xr:uid="{2BBF63F1-1E36-4BF5-AD5F-4BB8180A6D88}"/>
-    <hyperlink ref="H19" r:id="rId12" xr:uid="{B1137307-EC80-4C4C-821E-3DEE3A2C67A0}"/>
-    <hyperlink ref="H15" r:id="rId13" xr:uid="{97BEAF2A-6E8E-4B90-BC25-185E1E54DE93}"/>
-    <hyperlink ref="H7" r:id="rId14" xr:uid="{D645C169-0955-42B1-91D7-EAD522DD9052}"/>
-    <hyperlink ref="H9" r:id="rId15" xr:uid="{26A2CB1E-9550-4751-81A8-61897221B76A}"/>
-    <hyperlink ref="H8" r:id="rId16" xr:uid="{C214EC02-086B-4E78-B6A0-0544C8053369}"/>
-    <hyperlink ref="H17" r:id="rId17" xr:uid="{0083025A-7425-468B-B897-6A4BC2370479}"/>
-    <hyperlink ref="H10" r:id="rId18" xr:uid="{62271D6A-11E5-324C-A168-F03AD3082C1C}"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{73E77623-1109-4B10-A977-91CB23A629C3}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{2CF551D5-122A-4FDD-B170-75A6DF9A831B}"/>
+    <hyperlink ref="H10" r:id="rId3" xr:uid="{FD0A18FB-CBA5-4CCD-823D-01265DB8C468}"/>
+    <hyperlink ref="H11" r:id="rId4" xr:uid="{DA8A38F4-7099-4A64-B7F6-BAC424AE2599}"/>
+    <hyperlink ref="H12" r:id="rId5" xr:uid="{CF5C0BD2-346F-4709-9389-25D3B1AE2CA3}"/>
+    <hyperlink ref="H13" r:id="rId6" xr:uid="{BD8324C3-BAFC-4365-8C09-DA4E5D624651}"/>
+    <hyperlink ref="H15" r:id="rId7" xr:uid="{BFD6EC85-69AF-42DF-9CCD-22E4033A442D}"/>
+    <hyperlink ref="H16" r:id="rId8" xr:uid="{2BBF63F1-1E36-4BF5-AD5F-4BB8180A6D88}"/>
+    <hyperlink ref="H17" r:id="rId9" xr:uid="{B1137307-EC80-4C4C-821E-3DEE3A2C67A0}"/>
+    <hyperlink ref="H14" r:id="rId10" xr:uid="{97BEAF2A-6E8E-4B90-BC25-185E1E54DE93}"/>
+    <hyperlink ref="H6" r:id="rId11" xr:uid="{D645C169-0955-42B1-91D7-EAD522DD9052}"/>
+    <hyperlink ref="H8" r:id="rId12" xr:uid="{26A2CB1E-9550-4751-81A8-61897221B76A}"/>
+    <hyperlink ref="H7" r:id="rId13" xr:uid="{C214EC02-086B-4E78-B6A0-0544C8053369}"/>
+    <hyperlink ref="H9" r:id="rId14" xr:uid="{62271D6A-11E5-324C-A168-F03AD3082C1C}"/>
+    <hyperlink ref="H2" r:id="rId15" xr:uid="{9AAF1EE2-6FED-064B-9267-F4526A8635F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId16"/>
 </worksheet>
 </file>